--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>zh_CN</t>
   </si>
@@ -31,7 +31,11 @@
     <t>为小干员授课结束的远山遇到了来上下一门课的可颂。可颂似乎在生意上遇到了些问题，于是在收取报酬后，远山为她占卜了一回。</t>
   </si>
   <si>
-    <t xml:space="preserve">为小干员授课结束的远山遇到了来上下一门课的可颂。可颂似乎在生意上遇到了些问题，于是在收取报酬后，远山为她占卜了一回。
+    <t xml:space="preserve">子供オペレーターたちの授業を終えたギターノは、次の授業を行うためにやってきたクロワッサンと会話をする。クロワッサンは商売で問題に直面しているらしい。ギターノは報酬を受け取って、彼女のために占いをするのだった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitano finishes her lesson with the young Operators when she meets Croissant, who's coming to teach the next. Croissant seems to have run into some issues with her business, and after receiving compensation, Gitano divines Croissant's fortune for her.
 </t>
   </si>
   <si>
@@ -422,10 +426,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
